--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efnb2-Epha4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efnb2-Epha4.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>38.969508</v>
+        <v>37.98277566666666</v>
       </c>
       <c r="H2">
-        <v>116.908524</v>
+        <v>113.948327</v>
       </c>
       <c r="I2">
-        <v>0.688733638790647</v>
+        <v>0.697850645410475</v>
       </c>
       <c r="J2">
-        <v>0.6887336387906469</v>
+        <v>0.6978506454104751</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.839997333333334</v>
+        <v>8.540560666666666</v>
       </c>
       <c r="N2">
-        <v>23.519992</v>
+        <v>25.621682</v>
       </c>
       <c r="O2">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="P2">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="Q2">
-        <v>305.520838801312</v>
+        <v>324.394199869557</v>
       </c>
       <c r="R2">
-        <v>2749.687549211808</v>
+        <v>2919.547798826014</v>
       </c>
       <c r="S2">
-        <v>0.2707253587633116</v>
+        <v>0.2902610725241662</v>
       </c>
       <c r="T2">
-        <v>0.2707253587633116</v>
+        <v>0.2902610725241663</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>38.969508</v>
+        <v>37.98277566666666</v>
       </c>
       <c r="H3">
-        <v>116.908524</v>
+        <v>113.948327</v>
       </c>
       <c r="I3">
-        <v>0.688733638790647</v>
+        <v>0.697850645410475</v>
       </c>
       <c r="J3">
-        <v>0.6887336387906469</v>
+        <v>0.6978506454104751</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>34.723655</v>
       </c>
       <c r="O3">
-        <v>0.5803178185796234</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="P3">
-        <v>0.5803178185796235</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="Q3">
-        <v>451.0545837705799</v>
+        <v>439.6335993972427</v>
       </c>
       <c r="R3">
-        <v>4059.49125393522</v>
+        <v>3956.702394575185</v>
       </c>
       <c r="S3">
-        <v>0.3996844028453945</v>
+        <v>0.3933748511225425</v>
       </c>
       <c r="T3">
-        <v>0.3996844028453945</v>
+        <v>0.3933748511225426</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>38.969508</v>
+        <v>37.98277566666666</v>
       </c>
       <c r="H4">
-        <v>116.908524</v>
+        <v>113.948327</v>
       </c>
       <c r="I4">
-        <v>0.688733638790647</v>
+        <v>0.697850645410475</v>
       </c>
       <c r="J4">
-        <v>0.6887336387906469</v>
+        <v>0.6978506454104751</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.4858216666666667</v>
+        <v>0.026642</v>
       </c>
       <c r="N4">
-        <v>1.457465</v>
+        <v>0.079926</v>
       </c>
       <c r="O4">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="P4">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="Q4">
-        <v>18.93223132574</v>
+        <v>1.011937109311333</v>
       </c>
       <c r="R4">
-        <v>170.39008193166</v>
+        <v>9.107433983801998</v>
       </c>
       <c r="S4">
-        <v>0.01677605736472912</v>
+        <v>0.0009054599336049254</v>
       </c>
       <c r="T4">
-        <v>0.01677605736472911</v>
+        <v>0.0009054599336049255</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>38.969508</v>
+        <v>37.98277566666666</v>
       </c>
       <c r="H5">
-        <v>116.908524</v>
+        <v>113.948327</v>
       </c>
       <c r="I5">
-        <v>0.688733638790647</v>
+        <v>0.697850645410475</v>
       </c>
       <c r="J5">
-        <v>0.6887336387906469</v>
+        <v>0.6978506454104751</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.04482366666666667</v>
+        <v>0.391608</v>
       </c>
       <c r="N5">
-        <v>0.134471</v>
+        <v>1.174824</v>
       </c>
       <c r="O5">
-        <v>0.002247341686300608</v>
+        <v>0.01907179124600912</v>
       </c>
       <c r="P5">
-        <v>0.002247341686300608</v>
+        <v>0.01907179124600912</v>
       </c>
       <c r="Q5">
-        <v>1.746756236756</v>
+        <v>14.874358813272</v>
       </c>
       <c r="R5">
-        <v>15.720806130804</v>
+        <v>133.869229319448</v>
       </c>
       <c r="S5">
-        <v>0.001547819817211727</v>
+        <v>0.01330926183016131</v>
       </c>
       <c r="T5">
-        <v>0.001547819817211726</v>
+        <v>0.01330926183016131</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>29.057191</v>
       </c>
       <c r="I6">
-        <v>0.1711822560557247</v>
+        <v>0.1779541659542351</v>
       </c>
       <c r="J6">
-        <v>0.1711822560557247</v>
+        <v>0.1779541659542352</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.839997333333334</v>
+        <v>8.540560666666666</v>
       </c>
       <c r="N6">
-        <v>23.519992</v>
+        <v>25.621682</v>
       </c>
       <c r="O6">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="P6">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="Q6">
-        <v>75.93609998471912</v>
+        <v>82.72156751280689</v>
       </c>
       <c r="R6">
-        <v>683.4248998624721</v>
+        <v>744.4941076152621</v>
       </c>
       <c r="S6">
-        <v>0.06728780921166252</v>
+        <v>0.07401750992096227</v>
       </c>
       <c r="T6">
-        <v>0.06728780921166251</v>
+        <v>0.07401750992096229</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>29.057191</v>
       </c>
       <c r="I7">
-        <v>0.1711822560557247</v>
+        <v>0.1779541659542351</v>
       </c>
       <c r="J7">
-        <v>0.1711822560557247</v>
+        <v>0.1779541659542352</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -874,10 +874,10 @@
         <v>34.723655</v>
       </c>
       <c r="O7">
-        <v>0.5803178185796234</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="P7">
-        <v>0.5803178185796235</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="Q7">
         <v>112.1079861725672</v>
@@ -886,10 +886,10 @@
         <v>1008.971875553105</v>
       </c>
       <c r="S7">
-        <v>0.0993401134137967</v>
+        <v>0.1003118561246124</v>
       </c>
       <c r="T7">
-        <v>0.09934011341379671</v>
+        <v>0.1003118561246124</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>29.057191</v>
       </c>
       <c r="I8">
-        <v>0.1711822560557247</v>
+        <v>0.1779541659542351</v>
       </c>
       <c r="J8">
-        <v>0.1711822560557247</v>
+        <v>0.1779541659542352</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.4858216666666667</v>
+        <v>0.026642</v>
       </c>
       <c r="N8">
-        <v>1.457465</v>
+        <v>0.079926</v>
       </c>
       <c r="O8">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="P8">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="Q8">
-        <v>4.705537653423889</v>
+        <v>0.2580472275406667</v>
       </c>
       <c r="R8">
-        <v>42.34983888081501</v>
+        <v>2.322425047866</v>
       </c>
       <c r="S8">
-        <v>0.004169628410276488</v>
+        <v>0.0002308952042236271</v>
       </c>
       <c r="T8">
-        <v>0.004169628410276487</v>
+        <v>0.0002308952042236271</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,40 +980,40 @@
         <v>29.057191</v>
       </c>
       <c r="I9">
-        <v>0.1711822560557247</v>
+        <v>0.1779541659542351</v>
       </c>
       <c r="J9">
-        <v>0.1711822560557247</v>
+        <v>0.1779541659542352</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.04482366666666667</v>
+        <v>0.391608</v>
       </c>
       <c r="N9">
-        <v>0.134471</v>
+        <v>1.174824</v>
       </c>
       <c r="O9">
-        <v>0.002247341686300608</v>
+        <v>0.01907179124600912</v>
       </c>
       <c r="P9">
-        <v>0.002247341686300608</v>
+        <v>0.01907179124600912</v>
       </c>
       <c r="Q9">
-        <v>0.4341499478845556</v>
+        <v>3.793009484376</v>
       </c>
       <c r="R9">
-        <v>3.907349530961</v>
+        <v>34.13708535938401</v>
       </c>
       <c r="S9">
-        <v>0.0003847050199890149</v>
+        <v>0.003393904704436835</v>
       </c>
       <c r="T9">
-        <v>0.0003847050199890149</v>
+        <v>0.003393904704436836</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6067633333333333</v>
+        <v>0.5676613333333332</v>
       </c>
       <c r="H10">
-        <v>1.82029</v>
+        <v>1.702984</v>
       </c>
       <c r="I10">
-        <v>0.01072372580252768</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="J10">
-        <v>0.01072372580252768</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.839997333333334</v>
+        <v>8.540560666666666</v>
       </c>
       <c r="N10">
-        <v>23.519992</v>
+        <v>25.621682</v>
       </c>
       <c r="O10">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="P10">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="Q10">
-        <v>4.757022915297778</v>
+        <v>4.848146055454222</v>
       </c>
       <c r="R10">
-        <v>42.81320623768</v>
+        <v>43.63331449908799</v>
       </c>
       <c r="S10">
-        <v>0.004215250064257663</v>
+        <v>0.004338018603217358</v>
       </c>
       <c r="T10">
-        <v>0.004215250064257662</v>
+        <v>0.004338018603217358</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6067633333333333</v>
+        <v>0.5676613333333332</v>
       </c>
       <c r="H11">
-        <v>1.82029</v>
+        <v>1.702984</v>
       </c>
       <c r="I11">
-        <v>0.01072372580252768</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="J11">
-        <v>0.01072372580252768</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1122,22 +1122,22 @@
         <v>34.723655</v>
       </c>
       <c r="O11">
-        <v>0.5803178185796234</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="P11">
-        <v>0.5803178185796235</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="Q11">
-        <v>7.023013551105556</v>
+        <v>6.570425431835554</v>
       </c>
       <c r="R11">
-        <v>63.20712195995</v>
+        <v>59.13382888651999</v>
       </c>
       <c r="S11">
-        <v>0.006223169164768887</v>
+        <v>0.005879077781142605</v>
       </c>
       <c r="T11">
-        <v>0.006223169164768887</v>
+        <v>0.005879077781142605</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6067633333333333</v>
+        <v>0.5676613333333332</v>
       </c>
       <c r="H12">
-        <v>1.82029</v>
+        <v>1.702984</v>
       </c>
       <c r="I12">
-        <v>0.01072372580252768</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="J12">
-        <v>0.01072372580252768</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.4858216666666667</v>
+        <v>0.026642</v>
       </c>
       <c r="N12">
-        <v>1.457465</v>
+        <v>0.079926</v>
       </c>
       <c r="O12">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="P12">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="Q12">
-        <v>0.2947787738722222</v>
+        <v>0.01512363324266666</v>
       </c>
       <c r="R12">
-        <v>2.65300896485</v>
+        <v>0.136112699184</v>
       </c>
       <c r="S12">
-        <v>0.0002612066974726562</v>
+        <v>1.353230732005614E-05</v>
       </c>
       <c r="T12">
-        <v>0.0002612066974726562</v>
+        <v>1.353230732005614E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,46 +1222,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.6067633333333333</v>
+        <v>0.5676613333333332</v>
       </c>
       <c r="H13">
-        <v>1.82029</v>
+        <v>1.702984</v>
       </c>
       <c r="I13">
-        <v>0.01072372580252768</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="J13">
-        <v>0.01072372580252768</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.04482366666666667</v>
+        <v>0.391608</v>
       </c>
       <c r="N13">
-        <v>0.134471</v>
+        <v>1.174824</v>
       </c>
       <c r="O13">
-        <v>0.002247341686300608</v>
+        <v>0.01907179124600912</v>
       </c>
       <c r="P13">
-        <v>0.002247341686300608</v>
+        <v>0.01907179124600912</v>
       </c>
       <c r="Q13">
-        <v>0.02719735739888889</v>
+        <v>0.222300719424</v>
       </c>
       <c r="R13">
-        <v>0.24477621659</v>
+        <v>2.000706474816</v>
       </c>
       <c r="S13">
-        <v>2.409987602847791E-05</v>
+        <v>0.0001989099844228115</v>
       </c>
       <c r="T13">
-        <v>2.40998760284779E-05</v>
+        <v>0.0001989099844228115</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.840641000000001</v>
+        <v>5.823095333333334</v>
       </c>
       <c r="H14">
-        <v>20.521923</v>
+        <v>17.469286</v>
       </c>
       <c r="I14">
-        <v>0.1208991288160603</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="J14">
-        <v>0.1208991288160602</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.839997333333334</v>
+        <v>8.540560666666666</v>
       </c>
       <c r="N14">
-        <v>23.519992</v>
+        <v>25.621682</v>
       </c>
       <c r="O14">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="P14">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="Q14">
-        <v>53.63060719829068</v>
+        <v>49.73249896211689</v>
       </c>
       <c r="R14">
-        <v>482.6754647846161</v>
+        <v>447.592490659052</v>
       </c>
       <c r="S14">
-        <v>0.04752266795095331</v>
+        <v>0.04449958875299155</v>
       </c>
       <c r="T14">
-        <v>0.04752266795095331</v>
+        <v>0.04449958875299155</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.840641000000001</v>
+        <v>5.823095333333334</v>
       </c>
       <c r="H15">
-        <v>20.521923</v>
+        <v>17.469286</v>
       </c>
       <c r="I15">
-        <v>0.1208991288160603</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="J15">
-        <v>0.1208991288160602</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1370,22 @@
         <v>34.723655</v>
       </c>
       <c r="O15">
-        <v>0.5803178185796234</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="P15">
-        <v>0.5803178185796235</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="Q15">
-        <v>79.17735268761834</v>
+        <v>67.39971779559222</v>
       </c>
       <c r="R15">
-        <v>712.5961741885651</v>
+        <v>606.59746016033</v>
       </c>
       <c r="S15">
-        <v>0.07015991870271297</v>
+        <v>0.06030784268967036</v>
       </c>
       <c r="T15">
-        <v>0.07015991870271297</v>
+        <v>0.06030784268967036</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.840641000000001</v>
+        <v>5.823095333333334</v>
       </c>
       <c r="H16">
-        <v>20.521923</v>
+        <v>17.469286</v>
       </c>
       <c r="I16">
-        <v>0.1208991288160603</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="J16">
-        <v>0.1208991288160602</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.4858216666666667</v>
+        <v>0.026642</v>
       </c>
       <c r="N16">
-        <v>1.457465</v>
+        <v>0.079926</v>
       </c>
       <c r="O16">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="P16">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="Q16">
-        <v>3.323331611688333</v>
+        <v>0.1551389058706667</v>
       </c>
       <c r="R16">
-        <v>29.909984505195</v>
+        <v>1.396250152836</v>
       </c>
       <c r="S16">
-        <v>0.002944840510368208</v>
+        <v>0.0001388150134199466</v>
       </c>
       <c r="T16">
-        <v>0.002944840510368207</v>
+        <v>0.0001388150134199466</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.840641000000001</v>
+        <v>5.823095333333334</v>
       </c>
       <c r="H17">
-        <v>20.521923</v>
+        <v>17.469286</v>
       </c>
       <c r="I17">
-        <v>0.1208991288160603</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="J17">
-        <v>0.1208991288160602</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.04482366666666667</v>
+        <v>0.391608</v>
       </c>
       <c r="N17">
-        <v>0.134471</v>
+        <v>1.174824</v>
       </c>
       <c r="O17">
-        <v>0.002247341686300608</v>
+        <v>0.01907179124600912</v>
       </c>
       <c r="P17">
-        <v>0.002247341686300608</v>
+        <v>0.01907179124600912</v>
       </c>
       <c r="Q17">
-        <v>0.3066226119703334</v>
+        <v>2.280370717296</v>
       </c>
       <c r="R17">
-        <v>2.759603507733</v>
+        <v>20.523336455664</v>
       </c>
       <c r="S17">
-        <v>0.0002717016520257593</v>
+        <v>0.002040427512024564</v>
       </c>
       <c r="T17">
-        <v>0.0002717016520257592</v>
+        <v>0.002040427512024564</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4787493333333333</v>
+        <v>0.3689676666666666</v>
       </c>
       <c r="H18">
-        <v>1.436248</v>
+        <v>1.106903</v>
       </c>
       <c r="I18">
-        <v>0.008461250535040448</v>
+        <v>0.006778975991080511</v>
       </c>
       <c r="J18">
-        <v>0.008461250535040448</v>
+        <v>0.006778975991080512</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.839997333333334</v>
+        <v>8.540560666666666</v>
       </c>
       <c r="N18">
-        <v>23.519992</v>
+        <v>25.621682</v>
       </c>
       <c r="O18">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="P18">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="Q18">
-        <v>3.753393496668445</v>
+        <v>3.151190741205111</v>
       </c>
       <c r="R18">
-        <v>33.780541470016</v>
+        <v>28.360716670846</v>
       </c>
       <c r="S18">
-        <v>0.00332592305307942</v>
+        <v>0.002819618860750954</v>
       </c>
       <c r="T18">
-        <v>0.00332592305307942</v>
+        <v>0.002819618860750955</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.4787493333333333</v>
+        <v>0.3689676666666666</v>
       </c>
       <c r="H19">
-        <v>1.436248</v>
+        <v>1.106903</v>
       </c>
       <c r="I19">
-        <v>0.008461250535040448</v>
+        <v>0.006778975991080511</v>
       </c>
       <c r="J19">
-        <v>0.008461250535040448</v>
+        <v>0.006778975991080512</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1618,22 +1618,22 @@
         <v>34.723655</v>
       </c>
       <c r="O19">
-        <v>0.5803178185796234</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="P19">
-        <v>0.5803178185796235</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="Q19">
-        <v>5.541308894048888</v>
+        <v>4.270635321162778</v>
       </c>
       <c r="R19">
-        <v>49.87178004644</v>
+        <v>38.435717890465</v>
       </c>
       <c r="S19">
-        <v>0.004910214452950344</v>
+        <v>0.003821274206440045</v>
       </c>
       <c r="T19">
-        <v>0.004910214452950345</v>
+        <v>0.003821274206440045</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,7 +1647,7 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.4787493333333333</v>
+        <v>0.3689676666666666</v>
       </c>
       <c r="H20">
-        <v>1.436248</v>
+        <v>1.106903</v>
       </c>
       <c r="I20">
-        <v>0.008461250535040448</v>
+        <v>0.006778975991080511</v>
       </c>
       <c r="J20">
-        <v>0.008461250535040448</v>
+        <v>0.006778975991080512</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.4858216666666667</v>
+        <v>0.026642</v>
       </c>
       <c r="N20">
-        <v>1.457465</v>
+        <v>0.079926</v>
       </c>
       <c r="O20">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="P20">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="Q20">
-        <v>0.2325867990355555</v>
+        <v>0.009830036575333332</v>
       </c>
       <c r="R20">
-        <v>2.09328119132</v>
+        <v>0.08847032917799999</v>
       </c>
       <c r="S20">
-        <v>0.0002060977079650536</v>
+        <v>8.79570892591598E-06</v>
       </c>
       <c r="T20">
-        <v>0.0002060977079650536</v>
+        <v>8.79570892591598E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1709,7 +1709,7 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.4787493333333333</v>
+        <v>0.3689676666666666</v>
       </c>
       <c r="H21">
-        <v>1.436248</v>
+        <v>1.106903</v>
       </c>
       <c r="I21">
-        <v>0.008461250535040448</v>
+        <v>0.006778975991080511</v>
       </c>
       <c r="J21">
-        <v>0.008461250535040448</v>
+        <v>0.006778975991080512</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.04482366666666667</v>
+        <v>0.391608</v>
       </c>
       <c r="N21">
-        <v>0.134471</v>
+        <v>1.174824</v>
       </c>
       <c r="O21">
-        <v>0.002247341686300608</v>
+        <v>0.01907179124600912</v>
       </c>
       <c r="P21">
-        <v>0.002247341686300608</v>
+        <v>0.01907179124600912</v>
       </c>
       <c r="Q21">
-        <v>0.02145930053422222</v>
+        <v>0.144490690008</v>
       </c>
       <c r="R21">
-        <v>0.193133704808</v>
+        <v>1.300416210072</v>
       </c>
       <c r="S21">
-        <v>1.901532104562972E-05</v>
+        <v>0.0001292872149635952</v>
       </c>
       <c r="T21">
-        <v>1.901532104562972E-05</v>
+        <v>0.0001292872149635953</v>
       </c>
     </row>
   </sheetData>
